--- a/data/trans_camb/P25_5-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25_5-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,8</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-1,63</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 3,34</t>
+          <t>-4,56; 7,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 2,55</t>
+          <t>-6,59; 3,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 4,35</t>
+          <t>-8,36; 3,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 1,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 2,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 2,94</t>
+          <t>-9,45; 1,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 0,94</t>
+          <t>-8,62; 2,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 1,47</t>
+          <t>-4,76; 14,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 2,11</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-5,29; 2,91</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-6,08; 1,61</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-4,08; 8,21</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-16,66%</t>
+          <t>36,94%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-24,97%</t>
+          <t>-10,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,05%</t>
+          <t>-33,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-32,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-20,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-17,19%</t>
+          <t>-31,25%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-26,6%</t>
+          <t>-24,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-22,17%</t>
+          <t>23,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-12,03%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-10,1%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-20,47%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>10,12%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-60,49; 88,98</t>
+          <t>-47,86; 292,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-65,33; 77,14</t>
+          <t>-68,99; 158,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-59,24; 109,59</t>
+          <t>-86,78; 190,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-63,01; 22,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-54,36; 44,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,66; 46,44</t>
+          <t>-66,3; 34,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-53,99; 17,29</t>
+          <t>-60,48; 42,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-51,29; 25,39</t>
+          <t>-44,24; 227,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-43,99; 36,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-48,57; 56,14</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-53,84; 30,1</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-43,97; 138,92</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,86</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 3,75</t>
+          <t>-3,28; 4,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 4,35</t>
+          <t>-3,77; 4,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 5,3</t>
+          <t>-4,22; 3,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 1,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 3,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 6,8</t>
+          <t>-5,13; 0,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 1,69</t>
+          <t>-2,27; 5,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 3,18</t>
+          <t>-1,43; 5,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 5,01</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,1; 1,5</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,08; 3,43</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,52; 3,68</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>34,4%</t>
+          <t>-5,42%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-21,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>58,33%</t>
+          <t>-32,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-5,87%</t>
+          <t>16,13%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>37,99%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>45,13%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-14,4%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8,28%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>16,56%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-32,84; 90,07</t>
+          <t>-42,65; 112,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-41,24; 98,08</t>
+          <t>-49,97; 97,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,39; 120,59</t>
+          <t>-54,05; 81,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-51,97; 26,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-34,27; 82,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 167,11</t>
+          <t>-63,27; 24,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-34,11; 36,34</t>
+          <t>-30,58; 121,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,18; 62,44</t>
+          <t>-19,91; 133,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,36; 107,44</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-42,95; 30,87</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-28,97; 74,83</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-21,31; 78,35</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>-3,02</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,32</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,47</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,76</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 0,72</t>
+          <t>-8,48; 0,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 2,14</t>
+          <t>-7,88; 2,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 1,63</t>
+          <t>-5,13; 6,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 4,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 5,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 7,91</t>
+          <t>-2,12; 5,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 1,98</t>
+          <t>-2,2; 4,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 2,91</t>
+          <t>-1,77; 6,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 3,76</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,59; 2,16</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,87; 2,85</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-1,86; 5,01</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-36,64%</t>
+          <t>-44,57%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-16,86%</t>
+          <t>-22,16%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-36,07%</t>
+          <t>15,29%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>30,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>34,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>54,57%</t>
+          <t>30,06%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-4,19%</t>
+          <t>27,16%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>40,29%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-7,41%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1,93%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>27,57%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-71,92; 21,98</t>
+          <t>-75,22; 21,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-60,59; 53,28</t>
+          <t>-64,31; 57,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-76,76; 49,13</t>
+          <t>-48,37; 163,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-21,97; 115,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-21,34; 123,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 192,12</t>
+          <t>-26,8; 135,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-39,19; 45,1</t>
+          <t>-28,31; 124,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-30,97; 58,62</t>
+          <t>-21,63; 173,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-35,32; 76,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-42,63; 45,42</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-34,48; 62,26</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-25,2; 99,22</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,51</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,8</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 1,23</t>
+          <t>-5,55; 1,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 1,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 2,73</t>
+          <t>-4,1; 3,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 1,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 2,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 4,32</t>
+          <t>-4,69; 2,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 0,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 1,79</t>
+          <t>0,52; 9,65</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 2,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-3,95; 0,82</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,25; 4,62</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-11,48%</t>
+          <t>-30,51%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-8,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>-6,88%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-9,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>30,49%</t>
+          <t>-12,64%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-10,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>62,29%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>19,48%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-22,03%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>26,19%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-39,38; 25,02</t>
+          <t>-64,17; 44,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-37,25; 41,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-26,03; 55,2</t>
+          <t>-49,41; 69,52</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-33,9; 20,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-20,5; 45,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 77,16</t>
+          <t>-53,81; 50,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-29,49; 11,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-18,08; 33,97</t>
+          <t>5,27; 182,73</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 53,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-48,76; 15,88</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-15,84; 80,19</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,99</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,89</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,86</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3,03</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,92</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,19</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,0; 1,13</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-3,0; 1,45</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-2,59; 2,07</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-2,8; 1,1</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,4; 2,62</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0,83; 5,69</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-2,31; 0,45</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 1,35</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-0,13; 3,17</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-15,39%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-13,84%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-4,92%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-12,61%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>7,15%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>44,25%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-13,93%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-2,83%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>21,05%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-39,58; 22,48</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-40,44; 26,84</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-33,58; 38,47</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-35,08; 19,86</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-19,29; 46,36</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>10,29; 96,12</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-31,4; 7,57</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-22,76; 22,93</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-1,93; 54,88</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
